--- a/public/locations.xlsx
+++ b/public/locations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
   <si>
     <t>Name</t>
   </si>
@@ -44,6 +44,63 @@
   </si>
   <si>
     <t>Federal hall</t>
+  </si>
+  <si>
+    <t>House 1</t>
+  </si>
+  <si>
+    <t>House 2</t>
+  </si>
+  <si>
+    <t>House 3</t>
+  </si>
+  <si>
+    <t>House 4</t>
+  </si>
+  <si>
+    <t>House 5</t>
+  </si>
+  <si>
+    <t>House 6</t>
+  </si>
+  <si>
+    <t>House 7</t>
+  </si>
+  <si>
+    <t>House 8</t>
+  </si>
+  <si>
+    <t>House 9</t>
+  </si>
+  <si>
+    <t>House 10</t>
+  </si>
+  <si>
+    <t>House 11</t>
+  </si>
+  <si>
+    <t>House 12</t>
+  </si>
+  <si>
+    <t>House 13</t>
+  </si>
+  <si>
+    <t>House 14</t>
+  </si>
+  <si>
+    <t>House 15</t>
+  </si>
+  <si>
+    <t>House 16</t>
+  </si>
+  <si>
+    <t>House 17</t>
+  </si>
+  <si>
+    <t>House 18</t>
+  </si>
+  <si>
+    <t>House 19</t>
   </si>
 </sst>
 </file>
@@ -51,8 +108,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -74,6 +131,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -88,9 +152,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -104,21 +207,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -127,43 +215,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -193,17 +244,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,79 +275,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,103 +443,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,6 +466,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -423,6 +495,30 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -444,8 +540,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -455,48 +553,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,142 +571,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -985,13 +1042,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="23.7" customWidth="1"/>
     <col min="2" max="2" width="10.4" customWidth="1"/>
@@ -1021,10 +1078,10 @@
         <v>5</v>
       </c>
       <c r="C2" s="1">
-        <v>40.664045</v>
+        <v>-31.56391</v>
       </c>
       <c r="D2" s="1">
-        <v>-73.95067</v>
+        <v>147.154312</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1035,10 +1092,10 @@
         <v>7</v>
       </c>
       <c r="C3" s="1">
-        <v>40.662107</v>
+        <v>-33.718234</v>
       </c>
       <c r="D3" s="1">
-        <v>-73.945117</v>
+        <v>150.363181</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1049,10 +1106,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="1">
-        <v>40.673405</v>
+        <v>-33.727111</v>
       </c>
       <c r="D4" s="1">
-        <v>-73.831781</v>
+        <v>150.371124</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1063,10 +1120,276 @@
         <v>7</v>
       </c>
       <c r="C5" s="1">
-        <v>40.707443</v>
+        <v>-33.848588</v>
       </c>
       <c r="D5" s="1">
-        <v>-74.01007</v>
+        <v>151.209834</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>-33.851702</v>
+      </c>
+      <c r="D6">
+        <v>151.216968</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>-34.671264</v>
+      </c>
+      <c r="D7">
+        <v>150.863657</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>-35.304724</v>
+      </c>
+      <c r="D8">
+        <v>148.662905</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>-36.817685</v>
+      </c>
+      <c r="D9">
+        <v>175.699196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>-36.828611</v>
+      </c>
+      <c r="D10">
+        <v>175.790222</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>-37.75</v>
+      </c>
+      <c r="D11">
+        <v>145.116667</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>-37.759859</v>
+      </c>
+      <c r="D12">
+        <v>145.128708</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>-37.765015</v>
+      </c>
+      <c r="D13">
+        <v>145.133858</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>-37.770104</v>
+      </c>
+      <c r="D14">
+        <v>145.143299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>-37.7737</v>
+      </c>
+      <c r="D15">
+        <v>145.145187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>-37.774785</v>
+      </c>
+      <c r="D16">
+        <v>145.137978</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>-37.819616</v>
+      </c>
+      <c r="D17">
+        <v>144.968119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>-38.330766</v>
+      </c>
+      <c r="D18">
+        <v>144.695692</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <v>-39.927193</v>
+      </c>
+      <c r="D19">
+        <v>175.053218</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>-41.330162</v>
+      </c>
+      <c r="D20">
+        <v>174.865694</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <v>-42.734358</v>
+      </c>
+      <c r="D21">
+        <v>147.439506</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22">
+        <v>-42.734358</v>
+      </c>
+      <c r="D22">
+        <v>147.501315</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23">
+        <v>-42.735258</v>
+      </c>
+      <c r="D23">
+        <v>147.438</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>-43.999792</v>
+      </c>
+      <c r="D24">
+        <v>170.463352</v>
       </c>
     </row>
   </sheetData>
